--- a/Position Sizing.xlsx
+++ b/Position Sizing.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Carbon_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2755885-2C88-4F17-9F6B-7846E687EC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0BDE9D-9A67-4866-A8B5-1EB4D0BECDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE43E846-B43B-4173-8B85-F83AADD7881F}"/>
+    <workbookView xWindow="33840" yWindow="-10650" windowWidth="11715" windowHeight="8205" xr2:uid="{EE43E846-B43B-4173-8B85-F83AADD7881F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +180,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>45627</v>
+        <v>45444</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -467,7 +467,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>0.01</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -475,8 +475,8 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <f>B4*18000000</f>
-        <v>180000</v>
+        <f>B4*15000000</f>
+        <v>112500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
       </c>
       <c r="B6" s="3">
         <f>B5/1.6</f>
-        <v>112500</v>
+        <v>70312.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -493,23 +493,19 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <f>B9+5</f>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <f t="shared" ref="D9:F9" si="0">C9+5</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -517,19 +513,16 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>6.2921489205817629</v>
+        <v>0.28768601172828007</v>
       </c>
       <c r="C10">
-        <v>4.7680848148329256</v>
+        <v>0.59566794394730072</v>
       </c>
       <c r="D10">
-        <v>3.6159775855128236</v>
+        <v>1.1329989720371332</v>
       </c>
       <c r="E10">
-        <v>2.74223070658693</v>
-      </c>
-      <c r="F10">
-        <v>2.08</v>
+        <v>2.1156927888572321</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -538,24 +531,21 @@
       </c>
       <c r="B11" s="4">
         <f>$B$6/B10</f>
-        <v>17879.424250753178</v>
+        <v>244407.08666228192</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ref="C11:E11" si="1">$B$6/C10</f>
-        <v>23594.378952745625</v>
+        <v>118039.75808075482</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>31111.918517062677</v>
+        <v>62058.750038914921</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>41024.99462564227</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" ref="F11" si="2">$B$6/F10</f>
-        <v>54086.538461538461</v>
-      </c>
+        <v>33233.794797768591</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
